--- a/jadwal_kalender.xlsx
+++ b/jadwal_kalender.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/384a2e2a33609d7f/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kalender\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{C3D11E84-4D73-4DDF-8C6F-D47F770E2A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D73EDAA-F8F9-4AA9-939F-E7130682F0E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46D33D-E890-4D4D-B8EC-CF183FA880E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="6" xr2:uid="{C213A4B5-9D51-4576-8E6C-562FA1984EAF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" firstSheet="5" activeTab="7" xr2:uid="{C213A4B5-9D51-4576-8E6C-562FA1984EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGUIN ROTAMOULD PONTIANAK " sheetId="2" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="INDO SAWIT KEKAL-RVM" sheetId="7" r:id="rId5"/>
     <sheet name="AYU SAWIT LESTARI" sheetId="9" r:id="rId6"/>
     <sheet name="PARAMITRA INTERNUSA PRATAMA" sheetId="10" r:id="rId7"/>
-    <sheet name="SINAR TENGGARONG INTI MULYA" sheetId="12" r:id="rId8"/>
-    <sheet name="PERSADA GRAHA MANDIRI" sheetId="13" r:id="rId9"/>
-    <sheet name="KARTIKA PRIMA CIPTA" sheetId="16" r:id="rId10"/>
-    <sheet name="MAYA AGRO INVESTAMA" sheetId="18" r:id="rId11"/>
+    <sheet name="KARTIKA LESTARI" sheetId="19" r:id="rId8"/>
+    <sheet name="SINAR TENGGARONG INTI MULYA" sheetId="12" r:id="rId9"/>
+    <sheet name="PERSADA GRAHA MANDIRI" sheetId="13" r:id="rId10"/>
+    <sheet name="KARTIKA PRIMA CIPTA" sheetId="16" r:id="rId11"/>
+    <sheet name="MAYA AGRO INVESTAMA" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="454">
   <si>
     <t>MASA BERLAKU</t>
   </si>
@@ -1389,6 +1390,18 @@
   </si>
   <si>
     <t>RIKSA UJI BERKALA</t>
+  </si>
+  <si>
+    <t>truk tm</t>
+  </si>
+  <si>
+    <t>riksa uji berkala</t>
+  </si>
+  <si>
+    <t>judul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masa berlaku </t>
   </si>
 </sst>
 </file>
@@ -1713,6 +1726,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1762,12 +1781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2101,14 +2114,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -2368,6 +2381,639 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119B203-F40B-4F27-8D86-41ACF71C8306}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="D1" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>45917</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="16">
+        <f>DATE(YEAR(A4)+1,MONTH(A4),DAY(A4))</f>
+        <v>46282</v>
+      </c>
+      <c r="D4" s="18">
+        <v>46282</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="16">
+        <f>DATE(YEAR(D4)+2,MONTH(D4),DAY(D4))</f>
+        <v>47013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" ref="C5:C31" si="0">DATE(YEAR(A5)+1,MONTH(A5),DAY(A5))</f>
+        <v>46282</v>
+      </c>
+      <c r="D5" s="19">
+        <v>46282</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" ref="F5:F27" si="1">DATE(YEAR(D5)+2,MONTH(D5),DAY(D5))</f>
+        <v>47013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D6" s="19">
+        <v>46282</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>47013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D7" s="19">
+        <v>46282</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>47013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D8" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D9" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D10" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>46282</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="0"/>
+        <v>46647</v>
+      </c>
+      <c r="D11" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D12" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D13" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D14" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D15" s="19">
+        <v>46282</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="1"/>
+        <v>47013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D16" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D17" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D18" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D19" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D20" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D21" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D22" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D23" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D24" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D25" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D26" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="0"/>
+        <v>46282</v>
+      </c>
+      <c r="D27" s="19">
+        <v>45917</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="1"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>46282</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="0"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>46282</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="0"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>46282</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="0"/>
+        <v>46647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>46282</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="0"/>
+        <v>46647</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E72A7AE-6138-4A81-ACE5-D5F0DCE105A9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2385,16 +3031,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -2717,7 +3363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6695BB-4F96-45F9-8DCB-D0A60B896112}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -2734,16 +3380,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -3042,14 +3688,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -3058,7 +3704,7 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="27" t="s">
         <v>449</v>
       </c>
     </row>
@@ -3375,36 +4021,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="39"/>
+      <c r="G1" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="37"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="39"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -4730,27 +5376,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -5523,22 +6169,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -5780,7 +6426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAC48A7-2651-4AD7-A3C9-4C3DF342423A}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5794,16 +6440,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -6132,8 +6778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D9F095-ECED-4C99-B853-747856C7385C}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6150,30 +6796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="D1" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -6901,6 +7547,49 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3333FF7A-C47B-42E9-BD7F-D4F805DAF458}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>45943</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6C641-90C3-409A-BC34-F1003F478D99}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -6919,12 +7608,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8105,637 +8794,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119B203-F40B-4F27-8D86-41ACF71C8306}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>45917</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="16">
-        <f>DATE(YEAR(A4)+1,MONTH(A4),DAY(A4))</f>
-        <v>46282</v>
-      </c>
-      <c r="D4" s="18">
-        <v>46282</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="16">
-        <f>DATE(YEAR(D4)+2,MONTH(D4),DAY(D4))</f>
-        <v>47013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" s="16">
-        <f t="shared" ref="C5:C31" si="0">DATE(YEAR(A5)+1,MONTH(A5),DAY(A5))</f>
-        <v>46282</v>
-      </c>
-      <c r="D5" s="19">
-        <v>46282</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F5" s="16">
-        <f t="shared" ref="F5:F27" si="1">DATE(YEAR(D5)+2,MONTH(D5),DAY(D5))</f>
-        <v>47013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D6" s="19">
-        <v>46282</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>47013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D7" s="19">
-        <v>46282</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="1"/>
-        <v>47013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D8" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D9" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C10" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D10" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>46282</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" s="16">
-        <f t="shared" si="0"/>
-        <v>46647</v>
-      </c>
-      <c r="D11" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D12" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D13" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D14" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D15" s="19">
-        <v>46282</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="1"/>
-        <v>47013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D16" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D17" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D18" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D19" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C20" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D20" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D21" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D22" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D23" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D24" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D25" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D26" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>45917</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" s="16">
-        <f t="shared" si="0"/>
-        <v>46282</v>
-      </c>
-      <c r="D27" s="19">
-        <v>45917</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="F27" s="16">
-        <f t="shared" si="1"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>46282</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" si="0"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>46282</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="0"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>46282</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C30" s="16">
-        <f t="shared" si="0"/>
-        <v>46647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>46282</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="16">
-        <f t="shared" si="0"/>
-        <v>46647</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/jadwal_kalender.xlsx
+++ b/jadwal_kalender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kalender\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46D33D-E890-4D4D-B8EC-CF183FA880E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B39549-7E94-4F2B-B204-1F9803F76848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" firstSheet="5" activeTab="7" xr2:uid="{C213A4B5-9D51-4576-8E6C-562FA1984EAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="7" xr2:uid="{C213A4B5-9D51-4576-8E6C-562FA1984EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGUIN ROTAMOULD PONTIANAK " sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="455">
   <si>
     <t>MASA BERLAKU</t>
   </si>
@@ -1402,6 +1402,9 @@
   </si>
   <si>
     <t xml:space="preserve">masa berlaku </t>
+  </si>
+  <si>
+    <t>PONTIANAK</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1654,11 +1657,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1781,6 +1802,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3675,8 +3708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8362DD07-0FE1-4359-B542-D1E2B4A2353A}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,7 +4016,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(A26)+2,MONTH(A26),DAY(A26))</f>
         <v>46979</v>
       </c>
     </row>
@@ -6778,7 +6811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D9F095-ECED-4C99-B853-747856C7385C}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -7548,10 +7581,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3333FF7A-C47B-42E9-BD7F-D4F805DAF458}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7561,29 +7594,44 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="39"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="46" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>45943</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C4" s="13">
         <v>45578</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/jadwal_kalender.xlsx
+++ b/jadwal_kalender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kalender\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D10D11-5731-44D3-B2FB-09693924C1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C245721-CE3A-4CA2-B751-A6411E458A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="12" xr2:uid="{C213A4B5-9D51-4576-8E6C-562FA1984EAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{C213A4B5-9D51-4576-8E6C-562FA1984EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGUIN ROTAMOULD PONTIANAK " sheetId="2" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="SINAR TENGGARONG INTI MULYA" sheetId="12" r:id="rId12"/>
     <sheet name="PERSADA GRAHA MANDIRI" sheetId="13" r:id="rId13"/>
     <sheet name="KARTIKA PRIMA CIPTA" sheetId="16" r:id="rId14"/>
-    <sheet name="MAYA AGRO INVESTAMA" sheetId="18" r:id="rId15"/>
+    <sheet name="PENGUIN INDONESIA" sheetId="23" r:id="rId15"/>
+    <sheet name="MAYA AGRO INVESTAMA" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="675">
   <si>
     <t>MASA BERLAKU</t>
   </si>
@@ -1678,6 +1679,396 @@
   </si>
   <si>
     <t>tarctor (trc4 - 01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIKSA UJI BERKALA </t>
+  </si>
+  <si>
+    <t>katel uap jenis pipa air</t>
+  </si>
+  <si>
+    <t>electro static</t>
+  </si>
+  <si>
+    <t>excavator (eh-17)</t>
+  </si>
+  <si>
+    <t>excavator (eh-53)</t>
+  </si>
+  <si>
+    <t>compactor (eh-19)</t>
+  </si>
+  <si>
+    <t>grader (eh-20)</t>
+  </si>
+  <si>
+    <t>grader (eh-43)</t>
+  </si>
+  <si>
+    <t>truck (tl-84)</t>
+  </si>
+  <si>
+    <t>truck (tl-86)</t>
+  </si>
+  <si>
+    <t>truck (tl-85)</t>
+  </si>
+  <si>
+    <t>truck (tl-87)</t>
+  </si>
+  <si>
+    <t>truck (tl-48)</t>
+  </si>
+  <si>
+    <t>truck (tl-98)</t>
+  </si>
+  <si>
+    <t>truck (tl-121)</t>
+  </si>
+  <si>
+    <t>truck (tl-122)</t>
+  </si>
+  <si>
+    <t>truck (tl-129)</t>
+  </si>
+  <si>
+    <t>truck (tl-130)</t>
+  </si>
+  <si>
+    <t>truck (tl-131)</t>
+  </si>
+  <si>
+    <t>truck (tm-70)</t>
+  </si>
+  <si>
+    <t>truck (tm-84)</t>
+  </si>
+  <si>
+    <t>truck (tl-133)</t>
+  </si>
+  <si>
+    <t>truck (tl-132)</t>
+  </si>
+  <si>
+    <t>truck (tl-83)</t>
+  </si>
+  <si>
+    <t>truck (tl-32)</t>
+  </si>
+  <si>
+    <t>truck (tl-42)</t>
+  </si>
+  <si>
+    <t>truck (tl-43)</t>
+  </si>
+  <si>
+    <t>truck (tl-89)</t>
+  </si>
+  <si>
+    <t>truck (tl-45)</t>
+  </si>
+  <si>
+    <t>truck (tl-47)</t>
+  </si>
+  <si>
+    <t>truck (tl-88)</t>
+  </si>
+  <si>
+    <t>truck (tl-68)</t>
+  </si>
+  <si>
+    <t>truck (tl-69)</t>
+  </si>
+  <si>
+    <t>truck (tl-72)</t>
+  </si>
+  <si>
+    <t>truck (tl-73)</t>
+  </si>
+  <si>
+    <t>truck (tl-82)</t>
+  </si>
+  <si>
+    <t>truck (tl-70)</t>
+  </si>
+  <si>
+    <t>truck (tl-71)</t>
+  </si>
+  <si>
+    <t>truck (tl-61)</t>
+  </si>
+  <si>
+    <t>compactor (eh-37)</t>
+  </si>
+  <si>
+    <t>backhoe loader (eh-41)</t>
+  </si>
+  <si>
+    <t>mobile crane (eh-36)</t>
+  </si>
+  <si>
+    <t>compactor (eh-16)</t>
+  </si>
+  <si>
+    <t>grader (eh-12)</t>
+  </si>
+  <si>
+    <t>tractor (fm-23)</t>
+  </si>
+  <si>
+    <t>tractor (fm-28)</t>
+  </si>
+  <si>
+    <t>tractor (fs-111)</t>
+  </si>
+  <si>
+    <t>truck (tl-93)</t>
+  </si>
+  <si>
+    <t>tractor (fs-35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   tractor (fm-60)</t>
+  </si>
+  <si>
+    <t>tractor (fm-38)</t>
+  </si>
+  <si>
+    <t>truk (ts-40)</t>
+  </si>
+  <si>
+    <t>truk (ts-50)</t>
+  </si>
+  <si>
+    <t>tractor (fm-41)</t>
+  </si>
+  <si>
+    <t>tractor (fm-45)</t>
+  </si>
+  <si>
+    <t>tractor (fs-45)</t>
+  </si>
+  <si>
+    <t>tractor (fs-110)</t>
+  </si>
+  <si>
+    <t>bus -06</t>
+  </si>
+  <si>
+    <t>KEC. AIR UPAS</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.1</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.2</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.3</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.4</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.5</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.6</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.7</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.8</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.9</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.10</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.11</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.12</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.13</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.14</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.15</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.16</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.17</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.18</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.19</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.20</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.21</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.22</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.23</t>
+  </si>
+  <si>
+    <t>mesin press secondary-second press line 1 no.24</t>
+  </si>
+  <si>
+    <t>JL.HUJAN MAS, DUSUN PEBAOK</t>
+  </si>
+  <si>
+    <t>motor diesel gst3-01</t>
+  </si>
+  <si>
+    <t>motor diesel gst3-02</t>
+  </si>
+  <si>
+    <t>motor diesel gst3-03</t>
+  </si>
+  <si>
+    <t>motor diesel gst1-07</t>
+  </si>
+  <si>
+    <t>motor diesel gst1-01</t>
+  </si>
+  <si>
+    <t>tractor trc4-01</t>
+  </si>
+  <si>
+    <t>tractor trc4-02</t>
+  </si>
+  <si>
+    <t>tractor trc4-03</t>
+  </si>
+  <si>
+    <t>tractor trc4-05</t>
+  </si>
+  <si>
+    <t>tractor trc3-01</t>
+  </si>
+  <si>
+    <t>road compactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excavator </t>
+  </si>
+  <si>
+    <t>tackle no.01</t>
+  </si>
+  <si>
+    <t>tackle no.02</t>
+  </si>
+  <si>
+    <t>tackle no.03</t>
+  </si>
+  <si>
+    <t>tackle no.04</t>
+  </si>
+  <si>
+    <t>tackle no.05</t>
+  </si>
+  <si>
+    <t>tackle no.06</t>
+  </si>
+  <si>
+    <t>tackle no.07</t>
+  </si>
+  <si>
+    <t>tackle no.08</t>
+  </si>
+  <si>
+    <t>tackle no.09</t>
+  </si>
+  <si>
+    <t>tackle no.10</t>
+  </si>
+  <si>
+    <t>chain block no. 01</t>
+  </si>
+  <si>
+    <t>chain block no. 02</t>
+  </si>
+  <si>
+    <t>chain block no. 03</t>
+  </si>
+  <si>
+    <t>chain block no. 04</t>
+  </si>
+  <si>
+    <t>jenis storage tank (LPG)</t>
+  </si>
+  <si>
+    <t>comprassor</t>
+  </si>
+  <si>
+    <t>hoist crane</t>
+  </si>
+  <si>
+    <t>forklift</t>
+  </si>
+  <si>
+    <t>pemanfaatan listrik</t>
+  </si>
+  <si>
+    <t>motor bakar engine gas no.01</t>
+  </si>
+  <si>
+    <t>motor bakar engine gas no.02</t>
+  </si>
+  <si>
+    <t>motor diesel no.01</t>
+  </si>
+  <si>
+    <t>motor diesel no.02</t>
+  </si>
+  <si>
+    <t>motor diesel no.03</t>
+  </si>
+  <si>
+    <t>turbin uap no.01</t>
+  </si>
+  <si>
+    <t>turbin uap no.02</t>
+  </si>
+  <si>
+    <t>tangki minya cpo no.03</t>
+  </si>
+  <si>
+    <t>wheel loader eh-30</t>
+  </si>
+  <si>
+    <t>wheel loader eh-27</t>
+  </si>
+  <si>
+    <t>truk ts-26</t>
+  </si>
+  <si>
+    <t>forklift eh-47</t>
+  </si>
+  <si>
+    <t>backhoe loader eh-39</t>
+  </si>
+  <si>
+    <t>compressor puma</t>
+  </si>
+  <si>
+    <t>jenis pipa air</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +2108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1953,11 +2344,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2068,9 +2470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2123,6 +2522,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2440,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65982F96-FB1B-4D48-93B8-DC790D4F0422}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3320,7 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6C641-90C3-409A-BC34-F1003F478D99}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3336,13 +3753,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3351,7 +3768,7 @@
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4434,7 +4851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119B203-F40B-4F27-8D86-41ACF71C8306}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -4483,7 +4900,7 @@
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -4512,7 +4929,7 @@
       <c r="E4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>46282</v>
       </c>
       <c r="G4" s="11">
@@ -4541,7 +4958,7 @@
       <c r="E5" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>46282</v>
       </c>
       <c r="G5" s="5">
@@ -4570,7 +4987,7 @@
       <c r="E6" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>46282</v>
       </c>
       <c r="G6" s="11">
@@ -4599,7 +5016,7 @@
       <c r="E7" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>46282</v>
       </c>
       <c r="G7" s="5">
@@ -4628,7 +5045,7 @@
       <c r="E8" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>45917</v>
       </c>
       <c r="G8" s="11">
@@ -4657,7 +5074,7 @@
       <c r="E9" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>45917</v>
       </c>
       <c r="G9" s="5">
@@ -4686,7 +5103,7 @@
       <c r="E10" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>45917</v>
       </c>
       <c r="G10" s="11">
@@ -4715,7 +5132,7 @@
       <c r="E11" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>45917</v>
       </c>
       <c r="G11" s="5">
@@ -4744,7 +5161,7 @@
       <c r="E12" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>45917</v>
       </c>
       <c r="G12" s="11">
@@ -4773,7 +5190,7 @@
       <c r="E13" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>45917</v>
       </c>
       <c r="G13" s="5">
@@ -4802,7 +5219,7 @@
       <c r="E14" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <v>45917</v>
       </c>
       <c r="G14" s="11">
@@ -4831,7 +5248,7 @@
       <c r="E15" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <v>46282</v>
       </c>
       <c r="G15" s="5">
@@ -4860,7 +5277,7 @@
       <c r="E16" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="46">
         <v>45917</v>
       </c>
       <c r="G16" s="11">
@@ -4889,7 +5306,7 @@
       <c r="E17" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="46">
         <v>45917</v>
       </c>
       <c r="G17" s="5">
@@ -4918,7 +5335,7 @@
       <c r="E18" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="46">
         <v>45917</v>
       </c>
       <c r="G18" s="11">
@@ -4947,7 +5364,7 @@
       <c r="E19" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="46">
         <v>45917</v>
       </c>
       <c r="G19" s="5">
@@ -4976,7 +5393,7 @@
       <c r="E20" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <v>45917</v>
       </c>
       <c r="G20" s="11">
@@ -5005,7 +5422,7 @@
       <c r="E21" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="46">
         <v>45917</v>
       </c>
       <c r="G21" s="5">
@@ -5034,7 +5451,7 @@
       <c r="E22" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="46">
         <v>45917</v>
       </c>
       <c r="G22" s="11">
@@ -5063,7 +5480,7 @@
       <c r="E23" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="46">
         <v>45917</v>
       </c>
       <c r="G23" s="5">
@@ -5092,7 +5509,7 @@
       <c r="E24" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="46">
         <v>45917</v>
       </c>
       <c r="G24" s="11">
@@ -5121,7 +5538,7 @@
       <c r="E25" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="46">
         <v>45917</v>
       </c>
       <c r="G25" s="5">
@@ -5150,7 +5567,7 @@
       <c r="E26" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="46">
         <v>45917</v>
       </c>
       <c r="G26" s="11">
@@ -5179,7 +5596,7 @@
       <c r="E27" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="46">
         <v>45917</v>
       </c>
       <c r="G27" s="5">
@@ -5316,10 +5733,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E72A7AE-6138-4A81-ACE5-D5F0DCE105A9}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,233 +5746,384 @@
     <col min="3" max="3" width="18.5703125" style="8" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>446</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="30"/>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>47013</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="45">
         <v>46282</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>47013</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="46">
         <v>46282</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>47013</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="46">
         <v>46282</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>47013</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="46">
         <v>46282</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>46647</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>46647</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>46647</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="46">
         <v>45917</v>
       </c>
-      <c r="D10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>47013</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="46">
         <v>46282</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F11" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>46647</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>46647</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F13" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>46647</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>47013</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="46">
         <v>46282</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F15" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>46647</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>46647</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="F17" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>46647</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="11">
+        <v>45518</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>46647</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="46">
         <v>45917</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <v>45518</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F19" s="5">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>46647</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="46">
         <v>45917</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>46647</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="46">
         <v>45917</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>46647</v>
       </c>
@@ -5566,7 +6134,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>46647</v>
       </c>
@@ -5577,7 +6145,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>46647</v>
       </c>
@@ -5588,7 +6156,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>46647</v>
       </c>
@@ -5599,7 +6167,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>46647</v>
       </c>
@@ -5610,7 +6178,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>46647</v>
       </c>
@@ -5621,7 +6189,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>46647</v>
       </c>
@@ -5642,6 +6210,272 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ABBC68-3BDD-49F4-898E-BBF1C95DEB66}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C4" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C6" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>44943</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44578</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6695BB-4F96-45F9-8DCB-D0A60B896112}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -5676,7 +6510,7 @@
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5932,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8362DD07-0FE1-4359-B542-D1E2B4A2353A}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5944,20 +6778,30 @@
     <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
+      <c r="D1" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="56"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -5966,267 +6810,493 @@
       <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>46248</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="45">
         <v>45883</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>46979</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>46979</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>46979</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>46248</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="46">
         <v>45883</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F8" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>46979</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>46979</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F10" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>46979</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>46979</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="F12" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>46979</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="46">
         <v>46248</v>
       </c>
-      <c r="D13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>46979</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F14" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>46979</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>46979</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="F16" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>46979</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>46979</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F18" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>46979</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>46979</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="F20" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>46979</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>46979</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F22" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>46979</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>46979</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F24" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>46979</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="46">
         <v>46248</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>46979</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="46">
         <v>46248</v>
       </c>
+      <c r="D26" s="11">
+        <v>45156</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F26" s="11">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F27" s="5">
+        <v>44760</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6234,10 +7304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E92B1B-BBA0-46C9-9297-BFC0FE4A743F}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6254,9 +7324,18 @@
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="35.42578125" customWidth="1"/>
     <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="51" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="49" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="32" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>433</v>
       </c>
@@ -6275,20 +7354,26 @@
       </c>
       <c r="K1" s="29"/>
       <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="43"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="42"/>
       <c r="D2" s="27"/>
       <c r="E2" s="28"/>
       <c r="G2" s="31"/>
       <c r="H2" s="30"/>
       <c r="I2" s="33"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="49"/>
+      <c r="K2" s="48"/>
       <c r="L2" s="33"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="28"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>448</v>
       </c>
@@ -6298,35 +7383,62 @@
       <c r="C3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>448</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="52" t="s">
         <v>448</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>46206</v>
       </c>
@@ -6360,11 +7472,32 @@
       <c r="K4" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="45">
         <v>46404</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="O4" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P4" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="R4" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>46206</v>
       </c>
@@ -6374,7 +7507,7 @@
       <c r="C5" s="5">
         <v>45841</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="54">
         <v>46367</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -6398,11 +7531,32 @@
       <c r="K5" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="46">
         <v>46404</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="O5" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P5" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="R5" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>46206</v>
       </c>
@@ -6436,11 +7590,32 @@
       <c r="K6" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="46">
         <v>46404</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="O6" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P6" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="R6" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>46206</v>
       </c>
@@ -6474,11 +7649,32 @@
       <c r="K7" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="46">
         <v>46404</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="O7" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P7" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="R7" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>46206</v>
       </c>
@@ -6512,11 +7708,32 @@
       <c r="K8" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="46">
         <v>46404</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="O8" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P8" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="R8" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>46206</v>
       </c>
@@ -6550,11 +7767,32 @@
       <c r="K9" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="46">
         <v>46404</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="O9" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P9" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="R9" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>46206</v>
       </c>
@@ -6573,7 +7811,7 @@
       <c r="F10" s="5">
         <v>46002</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="53">
         <v>46432</v>
       </c>
       <c r="H10" s="37" t="s">
@@ -6588,11 +7826,32 @@
       <c r="K10" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="46">
         <v>46404</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="O10" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P10" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="R10" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>46206</v>
       </c>
@@ -6620,8 +7879,29 @@
       <c r="I11" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="O11" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P11" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="R11" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>46206</v>
       </c>
@@ -6649,8 +7929,29 @@
       <c r="I12" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="O12" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P12" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="R12" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>46206</v>
       </c>
@@ -6678,8 +7979,29 @@
       <c r="I13" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="O13" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P13" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="R13" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>46206</v>
       </c>
@@ -6707,8 +8029,29 @@
       <c r="I14" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O14" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P14" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="R14" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>46206</v>
       </c>
@@ -6736,8 +8079,29 @@
       <c r="I15" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="O15" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P15" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="R15" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>46206</v>
       </c>
@@ -6765,8 +8129,29 @@
       <c r="I16" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M16" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="O16" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P16" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="R16" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>46206</v>
       </c>
@@ -6794,8 +8179,29 @@
       <c r="I17" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="O17" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P17" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="R17" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>46206</v>
       </c>
@@ -6823,8 +8229,29 @@
       <c r="I18" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M18" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="O18" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P18" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="R18" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>46206</v>
       </c>
@@ -6852,8 +8279,29 @@
       <c r="I19" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M19" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="O19" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P19" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="R19" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>46206</v>
       </c>
@@ -6881,8 +8329,29 @@
       <c r="I20" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M20" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="O20" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P20" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="R20" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>46206</v>
       </c>
@@ -6910,8 +8379,29 @@
       <c r="I21" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M21" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="O21" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P21" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="R21" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>46206</v>
       </c>
@@ -6939,8 +8429,29 @@
       <c r="I22" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M22" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="O22" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P22" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="R22" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>46206</v>
       </c>
@@ -6968,8 +8479,29 @@
       <c r="I23" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M23" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="O23" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P23" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="R23" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>46206</v>
       </c>
@@ -6997,8 +8529,29 @@
       <c r="I24" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M24" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="O24" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P24" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="R24" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>46206</v>
       </c>
@@ -7026,8 +8579,29 @@
       <c r="I25" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M25" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="O25" s="46">
+        <v>45345</v>
+      </c>
+      <c r="P25" s="5">
+        <v>45841</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="R25" s="46">
+        <v>45476</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>46206</v>
       </c>
@@ -7046,8 +8620,29 @@
       <c r="I26" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M26" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="O26" s="45">
+        <v>45345</v>
+      </c>
+      <c r="P26" s="11">
+        <v>45841</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="R26" s="45">
+        <v>45476</v>
+      </c>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>46206</v>
       </c>
@@ -7066,8 +8661,17 @@
       <c r="I27" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M27" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="O27" s="46">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>46206</v>
       </c>
@@ -7086,8 +8690,17 @@
       <c r="I28" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M28" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="O28" s="45">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>46206</v>
       </c>
@@ -7106,8 +8719,17 @@
       <c r="I29" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M29" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="O29" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>46206</v>
       </c>
@@ -7126,8 +8748,17 @@
       <c r="I30" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M30" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="O30" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>46206</v>
       </c>
@@ -7146,8 +8777,17 @@
       <c r="I31" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M31" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="O31" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>46206</v>
       </c>
@@ -7166,8 +8806,17 @@
       <c r="I32" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M32" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="O32" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>46206</v>
       </c>
@@ -7186,8 +8835,17 @@
       <c r="I33" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M33" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="O33" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>46206</v>
       </c>
@@ -7206,8 +8864,17 @@
       <c r="I34" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M34" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="O34" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>46206</v>
       </c>
@@ -7226,8 +8893,17 @@
       <c r="I35" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M35" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="O35" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>46206</v>
       </c>
@@ -7246,8 +8922,17 @@
       <c r="I36" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M36" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="O36" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>46206</v>
       </c>
@@ -7266,8 +8951,17 @@
       <c r="I37" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M37" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="O37" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>46206</v>
       </c>
@@ -7286,8 +8980,17 @@
       <c r="I38" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M38" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="O38" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>46206</v>
       </c>
@@ -7306,8 +9009,17 @@
       <c r="I39" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M39" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="O39" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>46206</v>
       </c>
@@ -7326,8 +9038,17 @@
       <c r="I40" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M40" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="O40" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>46206</v>
       </c>
@@ -7346,8 +9067,17 @@
       <c r="I41" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M41" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="O41" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>46206</v>
       </c>
@@ -7366,8 +9096,17 @@
       <c r="I42" s="5">
         <v>46067</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M42" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="O42" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>46206</v>
       </c>
@@ -7377,8 +9116,17 @@
       <c r="C43" s="5">
         <v>45841</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M43" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="O43" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>46206</v>
       </c>
@@ -7388,8 +9136,17 @@
       <c r="C44" s="5">
         <v>45841</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M44" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="O44" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46206</v>
       </c>
@@ -7399,8 +9156,17 @@
       <c r="C45" s="5">
         <v>45841</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M45" s="5">
+        <v>45711</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="O45" s="5">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>46206</v>
       </c>
@@ -7410,8 +9176,17 @@
       <c r="C46" s="5">
         <v>45841</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M46" s="11">
+        <v>45711</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="O46" s="11">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46206</v>
       </c>
@@ -7422,7 +9197,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46206</v>
       </c>
@@ -7467,12 +9242,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:L2"/>
+    <mergeCell ref="P1:R2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7512,26 +9289,26 @@
       <c r="B2" s="30"/>
       <c r="C2" s="33"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="49"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>448</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8240,19 +10017,19 @@
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -8261,7 +10038,7 @@
       <c r="E3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8278,7 +10055,7 @@
       <c r="D4" s="13">
         <v>47135</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>144</v>
       </c>
       <c r="F4" s="11">
@@ -8298,7 +10075,7 @@
       <c r="D5" s="14">
         <v>47135</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>145</v>
       </c>
       <c r="F5" s="5">
@@ -8318,7 +10095,7 @@
       <c r="D6" s="14">
         <v>47135</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>146</v>
       </c>
       <c r="F6" s="5">
@@ -8467,10 +10244,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAC48A7-2651-4AD7-A3C9-4C3DF342423A}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8478,24 +10255,33 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>437</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
-      <c r="B2" s="49"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -8504,184 +10290,337 @@
       <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>47097</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="45">
         <v>46366</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="F4" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>47097</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>47097</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F6" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>47097</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>47097</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F8" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>47097</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>47097</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F10" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>46731</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="46">
         <v>46001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>46731</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="46">
         <v>46001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F12" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>46731</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="46">
         <v>46001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>46731</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="46">
         <v>46001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F14" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>47097</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>47097</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F16" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>47097</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>47097</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="46">
         <v>46366</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="11">
+        <v>43758</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F18" s="11">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>47097</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="58">
         <v>46366</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <v>43758</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>47097</v>
       </c>
@@ -8692,7 +10631,7 @@
         <v>46366</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>47097</v>
       </c>
@@ -8703,7 +10642,7 @@
         <v>46366</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>47097</v>
       </c>
@@ -8714,7 +10653,7 @@
         <v>46366</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>47097</v>
       </c>
@@ -8725,18 +10664,18 @@
         <v>46366</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>47097</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="11">
         <v>46366</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>47097</v>
       </c>
@@ -8747,7 +10686,7 @@
         <v>46366</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>46731</v>
       </c>
@@ -8758,7 +10697,7 @@
         <v>46001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>46731</v>
       </c>
@@ -8769,7 +10708,7 @@
         <v>46001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>46731</v>
       </c>
@@ -8781,8 +10720,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8793,7 +10733,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8829,38 +10769,38 @@
       <c r="A2" s="31"/>
       <c r="B2" s="28"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="49"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="33"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="49"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>448</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>448</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8871,14 +10811,14 @@
       <c r="B4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>46282</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="11">
         <v>47013</v>
       </c>
@@ -8896,14 +10836,14 @@
       <c r="B5" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>46282</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="5">
         <v>47013</v>
       </c>
@@ -8921,7 +10861,7 @@
       <c r="B6" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <v>46282</v>
       </c>
       <c r="D6" s="5">
@@ -8930,7 +10870,7 @@
       <c r="E6" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>46282</v>
       </c>
       <c r="G6" s="5">
@@ -8950,7 +10890,7 @@
       <c r="B7" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <v>46282</v>
       </c>
       <c r="D7" s="5">
@@ -8959,7 +10899,7 @@
       <c r="E7" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>46282</v>
       </c>
       <c r="G7" s="5">
@@ -8979,7 +10919,7 @@
       <c r="B8" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="46">
         <v>45917</v>
       </c>
       <c r="D8" s="5">
@@ -8988,7 +10928,7 @@
       <c r="E8" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>46282</v>
       </c>
       <c r="G8" s="5">
@@ -9008,7 +10948,7 @@
       <c r="B9" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <v>45917</v>
       </c>
       <c r="D9" s="5">
@@ -9017,7 +10957,7 @@
       <c r="E9" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>46282</v>
       </c>
       <c r="G9" s="5">
@@ -9037,7 +10977,7 @@
       <c r="B10" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <v>45917</v>
       </c>
       <c r="D10" s="5">
@@ -9046,7 +10986,7 @@
       <c r="E10" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>46282</v>
       </c>
       <c r="G10" s="5">
@@ -9066,7 +11006,7 @@
       <c r="B11" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <v>45917</v>
       </c>
       <c r="D11" s="5">
@@ -9075,7 +11015,7 @@
       <c r="E11" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>46282</v>
       </c>
       <c r="G11" s="5">
@@ -9095,7 +11035,7 @@
       <c r="B12" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="46">
         <v>45917</v>
       </c>
       <c r="D12" s="5">
@@ -9104,7 +11044,7 @@
       <c r="E12" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>46282</v>
       </c>
       <c r="G12" s="5">
@@ -9124,7 +11064,7 @@
       <c r="B13" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="46">
         <v>46282</v>
       </c>
       <c r="D13" s="5">
@@ -9133,7 +11073,7 @@
       <c r="E13" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>46282</v>
       </c>
       <c r="G13" s="5">
@@ -9153,7 +11093,7 @@
       <c r="B14" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <v>45917</v>
       </c>
       <c r="D14" s="5">
@@ -9162,7 +11102,7 @@
       <c r="E14" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <v>46282</v>
       </c>
       <c r="G14" s="5">
@@ -9182,7 +11122,7 @@
       <c r="B15" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="46">
         <v>45917</v>
       </c>
       <c r="D15" s="5">
@@ -9191,7 +11131,7 @@
       <c r="E15" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <v>46282</v>
       </c>
       <c r="G15" s="5">
@@ -9211,7 +11151,7 @@
       <c r="B16" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="46">
         <v>45917</v>
       </c>
       <c r="D16" s="5">
@@ -9220,7 +11160,7 @@
       <c r="E16" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="46">
         <v>45917</v>
       </c>
       <c r="G16" s="5">
@@ -9240,7 +11180,7 @@
       <c r="B17" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="46">
         <v>45917</v>
       </c>
       <c r="D17" s="5">
@@ -9249,7 +11189,7 @@
       <c r="E17" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="46">
         <v>45917</v>
       </c>
       <c r="G17" s="5">
@@ -9269,7 +11209,7 @@
       <c r="B18" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <v>45917</v>
       </c>
       <c r="D18" s="5">
@@ -9278,7 +11218,7 @@
       <c r="E18" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="46">
         <v>45917</v>
       </c>
       <c r="G18" s="5">
@@ -9298,7 +11238,7 @@
       <c r="B19" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <v>45917</v>
       </c>
       <c r="D19" s="5">
@@ -9307,7 +11247,7 @@
       <c r="E19" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="46">
         <v>45917</v>
       </c>
       <c r="G19" s="5">
@@ -9327,7 +11267,7 @@
       <c r="B20" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <v>45917</v>
       </c>
       <c r="D20" s="5">
@@ -9336,7 +11276,7 @@
       <c r="E20" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <v>45917</v>
       </c>
       <c r="G20" s="5">
@@ -9356,7 +11296,7 @@
       <c r="B21" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="46">
         <v>45917</v>
       </c>
       <c r="D21" s="5">
@@ -9376,7 +11316,7 @@
       <c r="B22" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <v>45917</v>
       </c>
       <c r="D22" s="5">
@@ -9396,7 +11336,7 @@
       <c r="B23" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="46">
         <v>45917</v>
       </c>
       <c r="D23" s="5">
@@ -9416,7 +11356,7 @@
       <c r="B24" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="46">
         <v>45917</v>
       </c>
       <c r="D24" s="5">
@@ -9436,7 +11376,7 @@
       <c r="B25" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="46">
         <v>45917</v>
       </c>
       <c r="D25" s="5">
@@ -9456,7 +11396,7 @@
       <c r="B26" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="46">
         <v>45917</v>
       </c>
       <c r="D26" s="5">
